--- a/fermentation_insights/TRY_results/c_spearman_general_takeaways.xlsx
+++ b/fermentation_insights/TRY_results/c_spearman_general_takeaways.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>product</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -431,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,46 +507,46 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>0.03383342183342183</v>
+        <v>-0.003092895092895093</v>
       </c>
       <c r="E2">
-        <v>-0.09876438276438276</v>
+        <v>-0.1108837228837229</v>
       </c>
       <c r="F2">
-        <v>0.0207021567021567</v>
+        <v>-0.002708270708270708</v>
       </c>
       <c r="G2">
-        <v>-0.05125347925347926</v>
+        <v>-0.04754546354546355</v>
       </c>
       <c r="H2">
-        <v>0.05453910653910654</v>
+        <v>0.0480957120957121</v>
       </c>
       <c r="I2">
-        <v>0.159977763977764</v>
+        <v>0.1712510912510913</v>
       </c>
       <c r="J2">
-        <v>0.3947721587721588</v>
+        <v>0.385039537039537</v>
       </c>
       <c r="K2">
-        <v>0.0184004584004584</v>
+        <v>0.02506148506148506</v>
       </c>
       <c r="L2">
-        <v>0.01336513336513337</v>
+        <v>0.006740430740430741</v>
       </c>
       <c r="M2">
-        <v>-0.0298011658011658</v>
+        <v>-0.02620437820437821</v>
       </c>
       <c r="N2">
-        <v>0.02870760470760471</v>
+        <v>0.04294576294576295</v>
       </c>
       <c r="O2">
-        <v>-0.0468974988974989</v>
+        <v>-0.05239133239133239</v>
       </c>
       <c r="P2">
-        <v>0.04208681408681408</v>
+        <v>0.04536582936582936</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -542,46 +557,46 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>-0.1113638073638074</v>
+        <v>-0.06903096903096903</v>
       </c>
       <c r="E3">
-        <v>-0.009895341895341895</v>
+        <v>-0.05064895464895465</v>
       </c>
       <c r="F3">
-        <v>-0.0591968871968872</v>
+        <v>-0.03505442305442306</v>
       </c>
       <c r="G3">
-        <v>-0.04687161487161487</v>
+        <v>-0.02629485829485829</v>
       </c>
       <c r="H3">
-        <v>0.02770919170919171</v>
+        <v>0.05598964398964399</v>
       </c>
       <c r="I3">
-        <v>0.1605719685719686</v>
+        <v>0.1728076848076848</v>
       </c>
       <c r="J3">
-        <v>0.3805724245724246</v>
+        <v>0.4035806355806356</v>
       </c>
       <c r="K3">
-        <v>0.0311984111984112</v>
+        <v>0.03003274203274203</v>
       </c>
       <c r="L3">
-        <v>-0.006221094221094221</v>
+        <v>0.0002862962862962863</v>
       </c>
       <c r="M3">
-        <v>0.1086476286476286</v>
+        <v>0.04555931755931756</v>
       </c>
       <c r="N3">
-        <v>0.0699043539043539</v>
+        <v>0.04996888996888997</v>
       </c>
       <c r="O3">
-        <v>-0.07418948618948619</v>
+        <v>-0.02952452952452952</v>
       </c>
       <c r="P3">
-        <v>-0.01805429405429405</v>
+        <v>0.02052987252987253</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -592,46 +607,46 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>0.08558014958014958</v>
+        <v>0.04455173655173655</v>
       </c>
       <c r="E4">
-        <v>-0.0786023946023946</v>
+        <v>-0.08492422892422892</v>
       </c>
       <c r="F4">
-        <v>0.02688095088095088</v>
+        <v>0.01362110562110562</v>
       </c>
       <c r="G4">
-        <v>-0.1976998976998977</v>
+        <v>-0.1895000015000015</v>
       </c>
       <c r="H4">
-        <v>0.03299404499404499</v>
+        <v>0.03499015099015099</v>
       </c>
       <c r="I4">
-        <v>0.1515772875772876</v>
+        <v>0.1545353625353625</v>
       </c>
       <c r="J4">
-        <v>0.4378469698469699</v>
+        <v>0.3993109113109113</v>
       </c>
       <c r="K4">
-        <v>0.0286016446016446</v>
+        <v>0.02902214902214902</v>
       </c>
       <c r="L4">
-        <v>0.001471621471621472</v>
+        <v>0.0001688401688401688</v>
       </c>
       <c r="M4">
-        <v>-0.01981291981291981</v>
+        <v>-0.02395622395622396</v>
       </c>
       <c r="N4">
-        <v>0.03013734613734614</v>
+        <v>0.02944595344595344</v>
       </c>
       <c r="O4">
-        <v>-0.02621937821937822</v>
+        <v>-0.02298943098943099</v>
       </c>
       <c r="P4">
-        <v>0.0376952656952657</v>
+        <v>0.0484985884985885</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -642,46 +657,1046 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>0.01013429813429814</v>
+      </c>
+      <c r="E5">
+        <v>-0.04244453444453444</v>
+      </c>
+      <c r="F5">
+        <v>-0.01140813540813541</v>
+      </c>
+      <c r="G5">
+        <v>-0.03743928143928144</v>
+      </c>
+      <c r="H5">
+        <v>0.04084764484764485</v>
+      </c>
+      <c r="I5">
+        <v>0.1643280443280443</v>
+      </c>
+      <c r="J5">
+        <v>0.3895774135774136</v>
+      </c>
+      <c r="K5">
+        <v>0.03415999015999016</v>
+      </c>
+      <c r="L5">
+        <v>0.0004805524805524805</v>
+      </c>
+      <c r="M5">
+        <v>-0.02146599346599347</v>
+      </c>
+      <c r="N5">
+        <v>0.04085416085416085</v>
+      </c>
+      <c r="O5">
+        <v>-0.06626562626562627</v>
+      </c>
+      <c r="P5">
+        <v>0.02772227172227172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>-0.0583997983997984</v>
+      </c>
+      <c r="E6">
+        <v>-0.05647240447240447</v>
+      </c>
+      <c r="F6">
+        <v>-0.05187307587307587</v>
+      </c>
+      <c r="G6">
+        <v>0.03221128421128421</v>
+      </c>
+      <c r="H6">
+        <v>0.04678473478473479</v>
+      </c>
+      <c r="I6">
+        <v>0.1847042207042207</v>
+      </c>
+      <c r="J6">
+        <v>0.4197001197001197</v>
+      </c>
+      <c r="K6">
+        <v>-0.04857198057198057</v>
+      </c>
+      <c r="L6">
+        <v>0.009668721668721668</v>
+      </c>
+      <c r="M6">
+        <v>-0.03654994854994855</v>
+      </c>
+      <c r="N6">
+        <v>-0.006188502188502189</v>
+      </c>
+      <c r="O6">
+        <v>-0.01448819048819049</v>
+      </c>
+      <c r="P6">
+        <v>0.04269029469029469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>-0.1155894555894556</v>
+      </c>
+      <c r="E7">
+        <v>0.00156967356967357</v>
+      </c>
+      <c r="F7">
+        <v>-0.09275288075288075</v>
+      </c>
+      <c r="G7">
+        <v>0.02284994284994285</v>
+      </c>
+      <c r="H7">
+        <v>0.04345931545931546</v>
+      </c>
+      <c r="I7">
+        <v>0.1782934662934663</v>
+      </c>
+      <c r="J7">
+        <v>0.4346580146580147</v>
+      </c>
+      <c r="K7">
+        <v>-0.03052729852729853</v>
+      </c>
+      <c r="L7">
+        <v>0.008957948957948958</v>
+      </c>
+      <c r="M7">
+        <v>-0.02339129939129939</v>
+      </c>
+      <c r="N7">
+        <v>0.005724581724581725</v>
+      </c>
+      <c r="O7">
+        <v>-0.004995100995100995</v>
+      </c>
+      <c r="P7">
+        <v>0.03310737310737311</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>-0.04462817662817663</v>
+      </c>
+      <c r="E8">
+        <v>-0.03745915345915346</v>
+      </c>
+      <c r="F8">
+        <v>-0.06196422196422197</v>
+      </c>
+      <c r="G8">
+        <v>-0.1175102495102495</v>
+      </c>
+      <c r="H8">
+        <v>0.03222351222351223</v>
+      </c>
+      <c r="I8">
+        <v>0.1914769794769795</v>
+      </c>
+      <c r="J8">
+        <v>0.4703683223683224</v>
+      </c>
+      <c r="K8">
+        <v>-0.04167169767169767</v>
+      </c>
+      <c r="L8">
+        <v>-0.02872090072090072</v>
+      </c>
+      <c r="M8">
+        <v>-0.03941562341562341</v>
+      </c>
+      <c r="N8">
+        <v>-0.003949575949575949</v>
+      </c>
+      <c r="O8">
+        <v>0.003076887076887077</v>
+      </c>
+      <c r="P8">
+        <v>0.02856575256575257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>-0.0283024123024123</v>
+      </c>
+      <c r="E9">
+        <v>0.01258928458928459</v>
+      </c>
+      <c r="F9">
+        <v>-0.06767715167715167</v>
+      </c>
+      <c r="G9">
+        <v>0.03947343947343947</v>
+      </c>
+      <c r="H9">
+        <v>0.03912139512139512</v>
+      </c>
+      <c r="I9">
+        <v>0.1745292545292545</v>
+      </c>
+      <c r="J9">
+        <v>0.4237301797301797</v>
+      </c>
+      <c r="K9">
+        <v>-0.03870703470703471</v>
+      </c>
+      <c r="L9">
+        <v>0.002190566190566191</v>
+      </c>
+      <c r="M9">
+        <v>-0.04135805335805336</v>
+      </c>
+      <c r="N9">
+        <v>0.00318059118059118</v>
+      </c>
+      <c r="O9">
+        <v>-5.902805902805903E-05</v>
+      </c>
+      <c r="P9">
+        <v>0.03783748983748984</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.006188958188958189</v>
+      </c>
+      <c r="E10">
+        <v>-0.01742436542436543</v>
+      </c>
+      <c r="F10">
+        <v>0.03039239439239439</v>
+      </c>
+      <c r="G10">
+        <v>-0.1889463809463809</v>
+      </c>
+      <c r="H10">
+        <v>0.5534273174273174</v>
+      </c>
+      <c r="I10">
+        <v>0.2512665112665113</v>
+      </c>
+      <c r="J10">
+        <v>0.2284543564543565</v>
+      </c>
+      <c r="K10">
+        <v>0.02895118095118095</v>
+      </c>
+      <c r="L10">
+        <v>0.01012964212964213</v>
+      </c>
+      <c r="M10">
+        <v>-0.009796053796053797</v>
+      </c>
+      <c r="N10">
+        <v>-0.02010728010728011</v>
+      </c>
+      <c r="O10">
+        <v>-0.4349314709314709</v>
+      </c>
+      <c r="P10">
+        <v>-0.01668455268455268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>0.1973299373299373</v>
+      </c>
+      <c r="E11">
+        <v>-0.02441114441114441</v>
+      </c>
+      <c r="F11">
+        <v>0.03793354993354994</v>
+      </c>
+      <c r="G11">
+        <v>-0.1599302799302799</v>
+      </c>
+      <c r="H11">
+        <v>0.6051554571554572</v>
+      </c>
+      <c r="I11">
+        <v>0.3004950124950125</v>
+      </c>
+      <c r="J11">
+        <v>0.1724490524490525</v>
+      </c>
+      <c r="K11">
+        <v>0.02505939705939706</v>
+      </c>
+      <c r="L11">
+        <v>-0.01193125193125193</v>
+      </c>
+      <c r="M11">
+        <v>-0.0122030402030402</v>
+      </c>
+      <c r="N11">
+        <v>-0.02531020931020931</v>
+      </c>
+      <c r="O11">
+        <v>-0.1686426726426726</v>
+      </c>
+      <c r="P11">
+        <v>0.06362960762960763</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>0.1526578286578286</v>
+      </c>
+      <c r="E12">
+        <v>-0.0146039066039066</v>
+      </c>
+      <c r="F12">
+        <v>0.03613306813306813</v>
+      </c>
+      <c r="G12">
+        <v>-0.6936683136683137</v>
+      </c>
+      <c r="H12">
+        <v>0.3325443445443446</v>
+      </c>
+      <c r="I12">
+        <v>0.2094632934632935</v>
+      </c>
+      <c r="J12">
+        <v>0.07588249588249588</v>
+      </c>
+      <c r="K12">
+        <v>0.0464020784020784</v>
+      </c>
+      <c r="L12">
+        <v>-0.03127306327306327</v>
+      </c>
+      <c r="M12">
+        <v>-0.03455615855615855</v>
+      </c>
+      <c r="N12">
+        <v>-0.00978926178926179</v>
+      </c>
+      <c r="O12">
+        <v>-0.1484989364989365</v>
+      </c>
+      <c r="P12">
+        <v>0.01645639645639646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>0.1654078054078054</v>
+      </c>
+      <c r="E13">
+        <v>-0.02668818268818269</v>
+      </c>
+      <c r="F13">
+        <v>0.01297189297189297</v>
+      </c>
+      <c r="G13">
+        <v>-0.1628323148323148</v>
+      </c>
+      <c r="H13">
+        <v>0.6081278481278481</v>
+      </c>
+      <c r="I13">
+        <v>0.2775879135879136</v>
+      </c>
+      <c r="J13">
+        <v>0.1496434856434856</v>
+      </c>
+      <c r="K13">
+        <v>-0.00724045924045924</v>
+      </c>
+      <c r="L13">
+        <v>-0.008071628071628072</v>
+      </c>
+      <c r="M13">
+        <v>-0.01999029199029199</v>
+      </c>
+      <c r="N13">
+        <v>-0.0111962391962392</v>
+      </c>
+      <c r="O13">
+        <v>-0.3186870306870307</v>
+      </c>
+      <c r="P13">
+        <v>-0.02965600165600166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>0.02732264732264732</v>
+      </c>
+      <c r="E14">
+        <v>-0.02419400419400419</v>
+      </c>
+      <c r="F14">
+        <v>0.025000705000705</v>
+      </c>
+      <c r="G14">
+        <v>-0.1572857052857053</v>
+      </c>
+      <c r="H14">
+        <v>0.5988750708750709</v>
+      </c>
+      <c r="I14">
+        <v>0.2540726660726661</v>
+      </c>
+      <c r="J14">
+        <v>0.1912547992547993</v>
+      </c>
+      <c r="K14">
+        <v>-0.003482115482115482</v>
+      </c>
+      <c r="L14">
+        <v>-0.0153000633000633</v>
+      </c>
+      <c r="M14">
+        <v>-0.02115802515802516</v>
+      </c>
+      <c r="N14">
+        <v>-0.002433734433734434</v>
+      </c>
+      <c r="O14">
+        <v>-0.3919263919263919</v>
+      </c>
+      <c r="P14">
+        <v>-0.04932384132384132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>0.1145169305169305</v>
+      </c>
+      <c r="E15">
+        <v>-0.01910500310500311</v>
+      </c>
+      <c r="F15">
+        <v>0.035001599001599</v>
+      </c>
+      <c r="G15">
+        <v>-0.1612004932004932</v>
+      </c>
+      <c r="H15">
+        <v>0.6344223344223344</v>
+      </c>
+      <c r="I15">
+        <v>0.2782035502035502</v>
+      </c>
+      <c r="J15">
+        <v>0.2152494712494712</v>
+      </c>
+      <c r="K15">
+        <v>0.01164692364692365</v>
+      </c>
+      <c r="L15">
+        <v>-0.01625143625143625</v>
+      </c>
+      <c r="M15">
+        <v>-0.01217401217401217</v>
+      </c>
+      <c r="N15">
+        <v>-0.02241076641076641</v>
+      </c>
+      <c r="O15">
+        <v>-0.1771975171975172</v>
+      </c>
+      <c r="P15">
+        <v>0.0306006546006546</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>0.04624005424005424</v>
+      </c>
+      <c r="E16">
+        <v>-0.02089136089136089</v>
+      </c>
+      <c r="F16">
+        <v>0.06587838587838588</v>
+      </c>
+      <c r="G16">
+        <v>-0.7132156612156613</v>
+      </c>
+      <c r="H16">
+        <v>0.35995361995362</v>
+      </c>
+      <c r="I16">
+        <v>0.160976680976681</v>
+      </c>
+      <c r="J16">
+        <v>0.198003294003294</v>
+      </c>
+      <c r="K16">
+        <v>0.03960445560445561</v>
+      </c>
+      <c r="L16">
+        <v>-0.01958607158607159</v>
+      </c>
+      <c r="M16">
+        <v>-0.04057391257391257</v>
+      </c>
+      <c r="N16">
+        <v>0.002750942750942751</v>
+      </c>
+      <c r="O16">
+        <v>-0.1661553701553702</v>
+      </c>
+      <c r="P16">
+        <v>0.07407510207510208</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>0.1014789294789295</v>
+      </c>
+      <c r="E17">
+        <v>-0.02443068043068043</v>
+      </c>
+      <c r="F17">
+        <v>0.01215405615405615</v>
+      </c>
+      <c r="G17">
+        <v>-0.160989952989953</v>
+      </c>
+      <c r="H17">
+        <v>0.6287255807255807</v>
+      </c>
+      <c r="I17">
+        <v>0.2586604746604746</v>
+      </c>
+      <c r="J17">
+        <v>0.1896197976197976</v>
+      </c>
+      <c r="K17">
+        <v>-0.01363959763959764</v>
+      </c>
+      <c r="L17">
+        <v>-0.01734646134646135</v>
+      </c>
+      <c r="M17">
+        <v>-0.01756091356091356</v>
+      </c>
+      <c r="N17">
+        <v>-0.007571227571227571</v>
+      </c>
+      <c r="O17">
+        <v>-0.3160650640650641</v>
+      </c>
+      <c r="P17">
+        <v>-0.05371928971928972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>0.05412906612906613</v>
-      </c>
-      <c r="E5">
-        <v>-0.04207395007395007</v>
-      </c>
-      <c r="F5">
-        <v>-0.0002841482841482841</v>
-      </c>
-      <c r="G5">
-        <v>-0.03783382983382983</v>
-      </c>
-      <c r="H5">
-        <v>0.03776626976626977</v>
-      </c>
-      <c r="I5">
-        <v>0.1607983847983848</v>
-      </c>
-      <c r="J5">
-        <v>0.4210912570912571</v>
-      </c>
-      <c r="K5">
-        <v>0.03766872166872167</v>
-      </c>
-      <c r="L5">
-        <v>0.003165015165015165</v>
-      </c>
-      <c r="M5">
-        <v>-0.01515815115815116</v>
-      </c>
-      <c r="N5">
-        <v>0.0416972096972097</v>
-      </c>
-      <c r="O5">
-        <v>-0.06597070197070197</v>
-      </c>
-      <c r="P5">
-        <v>0.01993757593757594</v>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>0.06356073956073956</v>
+      </c>
+      <c r="E18">
+        <v>-0.02672257472257472</v>
+      </c>
+      <c r="F18">
+        <v>0.004567828567828567</v>
+      </c>
+      <c r="G18">
+        <v>-0.1131370131370131</v>
+      </c>
+      <c r="H18">
+        <v>0.6111996351996352</v>
+      </c>
+      <c r="I18">
+        <v>0.2754414594414594</v>
+      </c>
+      <c r="J18">
+        <v>0.1627785427785428</v>
+      </c>
+      <c r="K18">
+        <v>-0.009751329751329751</v>
+      </c>
+      <c r="L18">
+        <v>0.0006288246288246288</v>
+      </c>
+      <c r="M18">
+        <v>-0.01897333897333897</v>
+      </c>
+      <c r="N18">
+        <v>-0.00308057108057108</v>
+      </c>
+      <c r="O18">
+        <v>-0.4511181191181191</v>
+      </c>
+      <c r="P18">
+        <v>-0.03467179067179067</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>0.1848725688725689</v>
+      </c>
+      <c r="E19">
+        <v>-0.01253586053586054</v>
+      </c>
+      <c r="F19">
+        <v>-0.0004990324990324991</v>
+      </c>
+      <c r="G19">
+        <v>-0.1160603360603361</v>
+      </c>
+      <c r="H19">
+        <v>0.655972327972328</v>
+      </c>
+      <c r="I19">
+        <v>0.2994681834681835</v>
+      </c>
+      <c r="J19">
+        <v>0.1760741960741961</v>
+      </c>
+      <c r="K19">
+        <v>-0.003833007833007833</v>
+      </c>
+      <c r="L19">
+        <v>-0.0008701328701328702</v>
+      </c>
+      <c r="M19">
+        <v>-0.0166969126969127</v>
+      </c>
+      <c r="N19">
+        <v>-0.02578716178716179</v>
+      </c>
+      <c r="O19">
+        <v>-0.2379040299040299</v>
+      </c>
+      <c r="P19">
+        <v>0.01433031833031833</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>0.1979104499104499</v>
+      </c>
+      <c r="E20">
+        <v>-0.02464798864798865</v>
+      </c>
+      <c r="F20">
+        <v>-0.01093791493791494</v>
+      </c>
+      <c r="G20">
+        <v>-0.5616244656244657</v>
+      </c>
+      <c r="H20">
+        <v>0.4625241425241425</v>
+      </c>
+      <c r="I20">
+        <v>0.2578444978444979</v>
+      </c>
+      <c r="J20">
+        <v>0.1118490518490518</v>
+      </c>
+      <c r="K20">
+        <v>0.02536992136992137</v>
+      </c>
+      <c r="L20">
+        <v>-0.01328430128430128</v>
+      </c>
+      <c r="M20">
+        <v>-0.02595404595404596</v>
+      </c>
+      <c r="N20">
+        <v>-0.01694741294741295</v>
+      </c>
+      <c r="O20">
+        <v>-0.2065991065991066</v>
+      </c>
+      <c r="P20">
+        <v>0.004163176163176163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>0.1606582366582367</v>
+      </c>
+      <c r="E21">
+        <v>-0.02942976542976543</v>
+      </c>
+      <c r="F21">
+        <v>-0.003191871191871192</v>
+      </c>
+      <c r="G21">
+        <v>-0.1205444405444406</v>
+      </c>
+      <c r="H21">
+        <v>0.6498722298722299</v>
+      </c>
+      <c r="I21">
+        <v>0.2825392385392385</v>
+      </c>
+      <c r="J21">
+        <v>0.1640748440748441</v>
+      </c>
+      <c r="K21">
+        <v>-0.01672687672687673</v>
+      </c>
+      <c r="L21">
+        <v>-0.003404379404379404</v>
+      </c>
+      <c r="M21">
+        <v>-0.01107895107895108</v>
+      </c>
+      <c r="N21">
+        <v>-0.01361811761811762</v>
+      </c>
+      <c r="O21">
+        <v>-0.3474930714930715</v>
+      </c>
+      <c r="P21">
+        <v>-0.02522809322809323</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>0.02597071397071397</v>
+      </c>
+      <c r="E22">
+        <v>-0.02464464064464065</v>
+      </c>
+      <c r="F22">
+        <v>0.007509247509247509</v>
+      </c>
+      <c r="G22">
+        <v>-0.1152091872091872</v>
+      </c>
+      <c r="H22">
+        <v>0.600045348045348</v>
+      </c>
+      <c r="I22">
+        <v>0.2775973095973096</v>
+      </c>
+      <c r="J22">
+        <v>0.2214268374268374</v>
+      </c>
+      <c r="K22">
+        <v>-0.007924999924999924</v>
+      </c>
+      <c r="L22">
+        <v>-0.006838218838218838</v>
+      </c>
+      <c r="M22">
+        <v>-0.01552430752430752</v>
+      </c>
+      <c r="N22">
+        <v>-0.01045072645072645</v>
+      </c>
+      <c r="O22">
+        <v>-0.3985840225840226</v>
+      </c>
+      <c r="P22">
+        <v>-0.04037245637245637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>0.1238022398022398</v>
+      </c>
+      <c r="E23">
+        <v>-0.005483201483201483</v>
+      </c>
+      <c r="F23">
+        <v>0.005066393066393066</v>
+      </c>
+      <c r="G23">
+        <v>-0.1203759963759964</v>
+      </c>
+      <c r="H23">
+        <v>0.6418030858030858</v>
+      </c>
+      <c r="I23">
+        <v>0.2957514077514077</v>
+      </c>
+      <c r="J23">
+        <v>0.2376575016575017</v>
+      </c>
+      <c r="K23">
+        <v>-0.004174360174360174</v>
+      </c>
+      <c r="L23">
+        <v>-0.007783123783123783</v>
+      </c>
+      <c r="M23">
+        <v>-0.01338090138090138</v>
+      </c>
+      <c r="N23">
+        <v>-0.03077254277254277</v>
+      </c>
+      <c r="O23">
+        <v>-0.185970317970318</v>
+      </c>
+      <c r="P23">
+        <v>0.006378834378834379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>0.107011415011415</v>
+      </c>
+      <c r="E24">
+        <v>-0.02006687606687607</v>
+      </c>
+      <c r="F24">
+        <v>-0.003683811683811684</v>
+      </c>
+      <c r="G24">
+        <v>-0.5853398013398013</v>
+      </c>
+      <c r="H24">
+        <v>0.4414351534351534</v>
+      </c>
+      <c r="I24">
+        <v>0.2507202347202347</v>
+      </c>
+      <c r="J24">
+        <v>0.1767807087807088</v>
+      </c>
+      <c r="K24">
+        <v>0.02772686772686773</v>
+      </c>
+      <c r="L24">
+        <v>-0.0202062802062802</v>
+      </c>
+      <c r="M24">
+        <v>-0.02495870495870496</v>
+      </c>
+      <c r="N24">
+        <v>-0.01993714393714394</v>
+      </c>
+      <c r="O24">
+        <v>-0.1587116067116067</v>
+      </c>
+      <c r="P24">
+        <v>0.00678988278988279</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>0.115946167946168</v>
+      </c>
+      <c r="E25">
+        <v>-0.02411994011994012</v>
+      </c>
+      <c r="F25">
+        <v>0.001384945384945385</v>
+      </c>
+      <c r="G25">
+        <v>-0.1215768255768256</v>
+      </c>
+      <c r="H25">
+        <v>0.6372560412560413</v>
+      </c>
+      <c r="I25">
+        <v>0.2846611046611047</v>
+      </c>
+      <c r="J25">
+        <v>0.2217000297000297</v>
+      </c>
+      <c r="K25">
+        <v>-0.01769399369399369</v>
+      </c>
+      <c r="L25">
+        <v>-0.007733815733815734</v>
+      </c>
+      <c r="M25">
+        <v>-0.01649171249171249</v>
+      </c>
+      <c r="N25">
+        <v>-0.01566675966675967</v>
+      </c>
+      <c r="O25">
+        <v>-0.300954132954133</v>
+      </c>
+      <c r="P25">
+        <v>-0.02698280698280698</v>
       </c>
     </row>
   </sheetData>
